--- a/data/CS4/case9/case9_2025.xlsx
+++ b/data/CS4/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4066F066-D306-4F0C-9061-95ADDFAA138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3F26D8-E1CB-423D-A3A7-FDF957658326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" firstSheet="71" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,11 @@
     <sheet name="Qg, Summer, S7" sheetId="251" r:id="rId80"/>
     <sheet name="Qg, Summer, S8" sheetId="252" r:id="rId81"/>
     <sheet name="Qg, Summer, S9" sheetId="253" r:id="rId82"/>
+    <sheet name="GenStatus, Summer" sheetId="254" r:id="rId83"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId83"/>
     <externalReference r:id="rId84"/>
+    <externalReference r:id="rId85"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ES installed'!$B$1:$C$4</definedName>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
   <si>
     <t>numScenarios</t>
   </si>
@@ -4440,7 +4441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -4643,99 +4644,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>63.213515250847408</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>58.962298506097504</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>55.868589827316192</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>55.473288462311977</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>56.142422269413508</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>61.712644058650092</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>73.638223854663295</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>88.637970856219326</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>96.502664630281259</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>97.706036425584998</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>95.069277891055165</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>95.55927765624395</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>95.48074971928547</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>93.921600216976501</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>88.569050186615982</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>86.031514177159323</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>89.597444655050381</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>99.320449734449994</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>98.960414674985657</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>96.911578248879408</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>95.244949892540973</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>89.270136192912545</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>78.094759798046042</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>70.851770555479249</v>
       </c>
     </row>
@@ -4744,99 +4745,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>66.211127907330052</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>61.91284679901942</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>55.991746461524187</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>59.784161238137209</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>58.99927218910414</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>60.990241798514383</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>90.166919531279547</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>97.823905798628218</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>107.14508855453973</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>107.39481110054246</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>101.22692599399196</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>110.80922196336978</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>104.79713940825049</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>98.758319472419373</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>95.889944876267023</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>89.669994155257498</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>89.113556678048269</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>95.107917172012705</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>94.448985028825206</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>95.57936888358681</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>93.357537225843714</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>84.075566747803592</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>73.405203690121596</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>71.703068248593326</v>
       </c>
     </row>
@@ -4845,99 +4846,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>94.55765377311468</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>83.767143510863832</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>78.686574486381261</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>77.613969665359249</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>80.499186339984021</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>86.299804374170577</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>104.17254994430661</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>113.84657534753339</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>120.41026295376072</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>124.68554662641563</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>125.56759585112142</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>124.35217650766153</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>123.91797036261477</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>121.98566782056463</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>118.23399656476357</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>116.09533891801264</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>119.5772710037803</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>136.08684949686005</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>138.0665371591152</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>138.60309609224217</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>134.84226481424636</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>128.34241758107419</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>119.28521058725715</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>106.34354915391876</v>
       </c>
     </row>
@@ -5662,99 +5663,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>63.213515250847408</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>58.962298506097504</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>55.868589827316192</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>55.473288462311977</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>56.142422269413508</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>61.712644058650092</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>73.638223854663295</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>88.637970856219326</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>96.502664630281259</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>97.706036425584998</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>95.069277891055165</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>95.55927765624395</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>95.48074971928547</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>93.921600216976501</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>88.569050186615982</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>86.031514177159323</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>89.597444655050381</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>99.320449734449994</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>98.960414674985657</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>96.911578248879408</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>95.244949892540973</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>89.270136192912545</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>78.094759798046042</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>70.851770555479249</v>
       </c>
     </row>
@@ -5763,99 +5764,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>66.211127907330052</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>61.91284679901942</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>55.991746461524187</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>59.784161238137209</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>58.99927218910414</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>60.990241798514383</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>90.166919531279547</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>97.823905798628218</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>107.14508855453973</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>107.39481110054246</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>101.22692599399196</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>110.80922196336978</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>104.79713940825049</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>98.758319472419373</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>95.889944876267023</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>89.669994155257498</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>89.113556678048269</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>95.107917172012705</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>94.448985028825206</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>95.57936888358681</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>93.357537225843714</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>84.075566747803592</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>73.405203690121596</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>71.703068248593326</v>
       </c>
     </row>
@@ -5864,99 +5865,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>94.55765377311468</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>83.767143510863832</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>78.686574486381261</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>77.613969665359249</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>80.499186339984021</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>86.299804374170577</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>104.17254994430661</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>113.84657534753339</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>120.41026295376072</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>124.68554662641563</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>125.56759585112142</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>124.35217650766153</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>123.91797036261477</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>121.98566782056463</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>118.23399656476357</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>116.09533891801264</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>119.5772710037803</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>136.08684949686005</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>138.0665371591152</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>138.60309609224217</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>134.84226481424636</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>128.34241758107419</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>119.28521058725715</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>106.34354915391876</v>
       </c>
     </row>
@@ -6681,99 +6682,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>60.203347857949915</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>56.154570005807152</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>53.208180787920178</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>52.831703297439979</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>53.468973589917617</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>58.773946722523888</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>70.131641766345993</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>84.417115101161258</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>91.907299647886916</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>93.053368024366648</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>90.542169420052545</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>91.008835863089473</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>90.934047351700443</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>89.449143063787147</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>84.351476368205709</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>81.934775406818403</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>85.330899671476573</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>94.590904508999998</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>94.248013976176793</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>92.296741189408948</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>90.709476088134252</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>85.01917732658336</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>74.375961712424797</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>67.477876719504025</v>
       </c>
     </row>
@@ -6782,99 +6783,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>63.234802938341495</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>59.147092389058798</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>53.488869717073257</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>57.092173630415893</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>56.316673162146799</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>58.193640264792471</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>86.004959795981378</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>93.188496974883023</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>102.06305540429874</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>102.31009570416754</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>96.423865425032275</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>105.55417171286979</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>99.841179879012486</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>94.118886847518581</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>91.391339808932884</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>85.466456584598646</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>84.907336573537393</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>90.654913164625924</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>89.995981021438425</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>91.05930498515967</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>88.959524011928536</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>80.101377761232456</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>70.043949507201987</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>68.450452944079828</v>
       </c>
     </row>
@@ -6883,99 +6884,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>90.231494239088747</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>79.960708305101093</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>75.102991645508567</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>74.072943561103543</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>76.792781877270485</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>82.297985574941222</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>99.343655427435735</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>108.4481822595546</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>114.69655483212826</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>118.7774628716658</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>119.60545576515557</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>118.45222365981429</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>118.05149507364513</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>116.24017098860928</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>112.67138903607245</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>110.63345159674641</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>113.92039783613934</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>129.68246775971866</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>131.53650685980986</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>132.03428327911718</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>128.46878838183582</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>122.26028331672828</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>113.7391941711406</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>101.44138713962785</v>
       </c>
     </row>
@@ -7700,99 +7701,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>60.203347857949915</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>56.154570005807152</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>53.208180787920178</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>52.831703297439979</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>53.468973589917617</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>58.773946722523888</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>70.131641766345993</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>84.417115101161258</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>91.907299647886916</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>93.053368024366648</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>90.542169420052545</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>91.008835863089473</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>90.934047351700443</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>89.449143063787147</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>84.351476368205709</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>81.934775406818403</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>85.330899671476573</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>94.590904508999998</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>94.248013976176793</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>92.296741189408948</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>90.709476088134252</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>85.01917732658336</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>74.375961712424797</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>67.477876719504025</v>
       </c>
     </row>
@@ -7801,99 +7802,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>63.234802938341495</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>59.147092389058798</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>53.488869717073257</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>57.092173630415893</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>56.316673162146799</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>58.193640264792471</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>86.004959795981378</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>93.188496974883023</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>102.06305540429874</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>102.31009570416754</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>96.423865425032275</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>105.55417171286979</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>99.841179879012486</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>94.118886847518581</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>91.391339808932884</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>85.466456584598646</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>84.907336573537393</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>90.654913164625924</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>89.995981021438425</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>91.05930498515967</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>88.959524011928536</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>80.101377761232456</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>70.043949507201987</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>68.450452944079828</v>
       </c>
     </row>
@@ -7902,99 +7903,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>90.231494239088747</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>79.960708305101093</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>75.102991645508567</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>74.072943561103543</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>76.792781877270485</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>82.297985574941222</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>99.343655427435735</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>108.4481822595546</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>114.69655483212826</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>118.7774628716658</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>119.60545576515557</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>118.45222365981429</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>118.05149507364513</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>116.24017098860928</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>112.67138903607245</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>110.63345159674641</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>113.92039783613934</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>129.68246775971866</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>131.53650685980986</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>132.03428327911718</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>128.46878838183582</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>122.26028331672828</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>113.7391941711406</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>101.44138713962785</v>
       </c>
     </row>
@@ -8719,99 +8720,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>60.203347857949915</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>56.154570005807152</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>53.208180787920178</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>52.831703297439979</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>53.468973589917617</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>58.773946722523888</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>70.131641766345993</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>84.417115101161258</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>91.907299647886916</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>93.053368024366648</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>90.542169420052545</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>91.008835863089473</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>90.934047351700443</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>89.449143063787147</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>84.351476368205709</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>81.934775406818403</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>85.330899671476573</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>94.590904508999998</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>94.248013976176793</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>92.296741189408948</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>90.709476088134252</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>85.01917732658336</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>74.375961712424797</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>67.477876719504025</v>
       </c>
     </row>
@@ -8820,99 +8821,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>63.234802938341495</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>59.147092389058798</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>53.488869717073257</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>57.092173630415893</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>56.316673162146799</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>58.193640264792471</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>86.004959795981378</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>93.188496974883023</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>102.06305540429874</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>102.31009570416754</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>96.423865425032275</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>105.55417171286979</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>99.841179879012486</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>94.118886847518581</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>91.391339808932884</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>85.466456584598646</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>84.907336573537393</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>90.654913164625924</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>89.995981021438425</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>91.05930498515967</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>88.959524011928536</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>80.101377761232456</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>70.043949507201987</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>68.450452944079828</v>
       </c>
     </row>
@@ -8921,99 +8922,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>90.231494239088747</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>79.960708305101093</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>75.102991645508567</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>74.072943561103543</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>76.792781877270485</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>82.297985574941222</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>99.343655427435735</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>108.4481822595546</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>114.69655483212826</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>118.7774628716658</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>119.60545576515557</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>118.45222365981429</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>118.05149507364513</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>116.24017098860928</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>112.67138903607245</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>110.63345159674641</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>113.92039783613934</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>129.68246775971866</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>131.53650685980986</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>132.03428327911718</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>128.46878838183582</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>122.26028331672828</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>113.7391941711406</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Winter, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>101.44138713962785</v>
       </c>
     </row>
@@ -11391,99 +11392,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>-27.522326783361297</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>-29.912989752056635</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>-32.220420748560088</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>-31.98586434526333</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>-33.106816578149996</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>-29.471298775886101</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>-21.946851136228457</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>-9.0337606160677222</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>-2.660390546880087</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>-0.41617383088293569</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>-3.7361713985915199</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>-2.7467606592860827</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>-3.8018905953735036</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>-3.8352280840424799</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>-9.6955649176216365</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>-13.963139961643833</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>-12.417662816291344</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>-4.2388035802769304</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>-6.1659392546728666</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>-7.7508803243540525</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>-12.175259437588762</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>-15.804277440647809</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>-21.203587734949426</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>-23.866441724275454</v>
       </c>
     </row>
@@ -11492,99 +11493,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>31.181204697465525</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>31.295722928138741</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>14.194964695530656</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>1.8274545762495187</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-10.692730161718593</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-10.692730161718593</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-0.92086827767024371</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-11.150803084411459</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-11.150803084411459</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-8.6314921262838933</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-1.0735592519012001</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>6.4843490569272575</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>18.775513624616398</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>28.7000664828957</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>28.7000664828957</v>
       </c>
     </row>
@@ -11593,99 +11594,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>21.157960271341956</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>16.320669342087335</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>13.971328179555488</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>13.671873117164592</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>15.538914641428779</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>19.293703690450855</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>29.93433940959039</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>36.544100698200609</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>42.221532164244131</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>46.493676206305558</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>46.88604718183111</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>46.045342401941362</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>46.241447128075201</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>45.769579750102515</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>41.289444068637451</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>39.228679470066723</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>40.484116567293498</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>55.178027630249993</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>55.097925870317106</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>53.416596321376097</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>49.442694594778352</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>43.971035369695471</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>35.86379830809139</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>27.51444231191422</v>
       </c>
     </row>
@@ -11942,99 +11943,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>-27.522326783361297</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>-29.912989752056635</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>-32.220420748560088</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>-31.98586434526333</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>-33.106816578149996</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>-29.471298775886101</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>-21.946851136228457</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>-9.0337606160677222</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>-2.660390546880087</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>-0.41617383088293569</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>-3.7361713985915199</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>-2.7467606592860827</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>-3.8018905953735036</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>-3.8352280840424799</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>-9.6955649176216365</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>-13.963139961643833</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>-12.417662816291344</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>-4.2388035802769304</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>-6.1659392546728666</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>-7.7508803243540525</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>-12.175259437588762</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>-15.804277440647809</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>-21.203587734949426</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>-23.866441724275454</v>
       </c>
     </row>
@@ -12043,99 +12044,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>31.181204697465525</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>31.295722928138741</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>14.194964695530656</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>1.8274545762495187</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-10.692730161718593</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-10.692730161718593</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-0.92086827767024371</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-11.150803084411459</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-11.150803084411459</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-8.6314921262838933</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-1.0735592519012001</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>6.4843490569272575</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>18.775513624616398</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>28.7000664828957</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>28.7000664828957</v>
       </c>
     </row>
@@ -12144,99 +12145,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>21.157960271341956</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>16.320669342087335</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>13.971328179555488</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>13.671873117164592</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>15.538914641428779</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>19.293703690450855</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>29.93433940959039</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>36.544100698200609</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>42.221532164244131</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>46.493676206305558</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>46.88604718183111</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>46.045342401941362</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>46.241447128075201</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>45.769579750102515</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>41.289444068637451</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>39.228679470066723</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>40.484116567293498</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>55.178027630249993</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>55.097925870317106</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>53.416596321376097</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>49.442694594778352</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>43.971035369695471</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>35.86379830809139</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>27.51444231191422</v>
       </c>
     </row>
@@ -12588,99 +12589,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>-27.522326783361297</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>-29.912989752056635</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>-32.220420748560088</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>-31.98586434526333</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>-33.106816578149996</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>-29.471298775886101</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>-21.946851136228457</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>-9.0337606160677222</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>-2.660390546880087</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>-0.41617383088293569</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>-3.7361713985915199</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>-2.7467606592860827</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>-3.8018905953735036</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>-3.8352280840424799</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>-9.6955649176216365</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>-13.963139961643833</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>-12.417662816291344</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>-4.2388035802769304</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>-6.1659392546728666</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>-7.7508803243540525</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>-12.175259437588762</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>-15.804277440647809</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>-21.203587734949426</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>-23.866441724275454</v>
       </c>
     </row>
@@ -12689,99 +12690,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>31.181204697465525</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>38.624619341174999</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>31.295722928138741</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>14.194964695530656</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>1.8274545762495187</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-10.692730161718593</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-10.692730161718593</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-0.92086827767024371</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-11.150803084411459</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-11.150803084411459</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-8.6314921262838933</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-1.0735592519012001</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>6.4843490569272575</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>9.0036518265367462</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>18.775513624616398</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>28.7000664828957</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>28.7000664828957</v>
       </c>
     </row>
@@ -12790,99 +12791,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>21.157960271341956</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>16.320669342087335</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>13.971328179555488</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>13.671873117164592</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>15.538914641428779</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>19.293703690450855</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>29.93433940959039</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>36.544100698200609</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>42.221532164244131</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>46.493676206305558</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>46.88604718183111</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>46.045342401941362</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>46.241447128075201</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>45.769579750102515</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>41.289444068637451</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>39.228679470066723</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>40.484116567293498</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>55.178027630249993</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>55.097925870317106</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>53.416596321376097</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>49.442694594778352</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>43.971035369695471</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>35.86379830809139</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>27.51444231191422</v>
       </c>
     </row>
@@ -13139,99 +13140,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>-26.211739793677427</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>-28.488561668625366</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>-30.68611499862865</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>-30.462727947869837</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>-31.530301502999997</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>-28.067903596082001</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>-20.901762986884243</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>-8.6035815391121169</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>-2.53370528274294</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>-0.39635602941231968</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>-3.5582584748490662</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>-2.6159625326534122</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>-3.6208481860700035</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>-3.6525981752785515</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>-9.2338713501158427</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>-13.298228534898886</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>-11.826345539325089</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>-4.0369557907399338</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>-5.8723230996884448</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>-7.3817907850990974</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>-11.595485178655961</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>-15.051692800616959</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>-20.193893080904218</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>-22.729944499309958</v>
       </c>
     </row>
@@ -13240,99 +13241,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>29.69638542615764</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>29.805450407751181</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>13.519013995743482</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>1.7404329297614463</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-10.183552534970087</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-10.183552534970087</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-0.87701740730499411</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-10.619812461344246</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-10.619812461344246</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-8.2204686916989456</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-1.0224373827630477</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>6.1755705304069108</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>17.881441547253711</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>27.333396650376855</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>27.333396650376855</v>
       </c>
     </row>
@@ -13341,99 +13342,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>20.150438353659005</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>15.543494611511743</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>13.306026837671892</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>13.020831540156756</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>14.798966325170264</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>18.37495589566748</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>28.50889467580037</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>34.80390542685771</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>40.210983013565837</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>44.279691625052912</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>44.653378268410584</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>43.852707049467959</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>44.039473455309711</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>43.590075952478585</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>39.323280065368998</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>37.360647114349263</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>38.556301492660467</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>52.550502504999997</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>52.474215114587714</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>50.872948877501045</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>47.088280566455566</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>41.877176542567113</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>34.155998388658467</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>26.204230773251638</v>
       </c>
     </row>
@@ -13690,99 +13691,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>-26.211739793677427</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>-28.488561668625366</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>-30.68611499862865</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>-30.462727947869837</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>-31.530301502999997</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>-28.067903596082001</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>-20.901762986884243</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>-8.6035815391121169</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>-2.53370528274294</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>-0.39635602941231968</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>-3.5582584748490662</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>-2.6159625326534122</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>-3.6208481860700035</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>-3.6525981752785515</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>-9.2338713501158427</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>-13.298228534898886</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>-11.826345539325089</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>-4.0369557907399338</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>-5.8723230996884448</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>-7.3817907850990974</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>-11.595485178655961</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>-15.051692800616959</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>-20.193893080904218</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>-22.729944499309958</v>
       </c>
     </row>
@@ -13791,99 +13792,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>29.69638542615764</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>29.805450407751181</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>13.519013995743482</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>1.7404329297614463</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-10.183552534970087</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-10.183552534970087</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-0.87701740730499411</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-10.619812461344246</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-10.619812461344246</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-8.2204686916989456</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-1.0224373827630477</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>6.1755705304069108</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>17.881441547253711</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>27.333396650376855</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>27.333396650376855</v>
       </c>
     </row>
@@ -13892,99 +13893,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>20.150438353659005</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>15.543494611511743</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>13.306026837671892</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>13.020831540156756</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>14.798966325170264</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>18.37495589566748</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>28.50889467580037</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>34.80390542685771</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>40.210983013565837</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>44.279691625052912</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>44.653378268410584</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>43.852707049467959</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>44.039473455309711</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>43.590075952478585</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>39.323280065368998</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>37.360647114349263</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>38.556301492660467</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>52.550502504999997</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>52.474215114587714</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>50.872948877501045</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>47.088280566455566</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>41.877176542567113</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>34.155998388658467</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>26.204230773251638</v>
       </c>
     </row>
@@ -14241,99 +14242,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>-26.211739793677427</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>-28.488561668625366</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>-30.68611499862865</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>-30.462727947869837</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>-31.530301502999997</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>-28.067903596082001</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>-20.901762986884243</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>-8.6035815391121169</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>-2.53370528274294</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>-0.39635602941231968</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>-3.5582584748490662</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>-2.6159625326534122</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>-3.6208481860700035</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>-3.6525981752785515</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>-9.2338713501158427</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>-13.298228534898886</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>-11.826345539325089</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>-4.0369557907399338</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>-5.8723230996884448</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>-7.3817907850990974</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>-11.595485178655961</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>-15.051692800616959</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>-20.193893080904218</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>-22.729944499309958</v>
       </c>
     </row>
@@ -14342,99 +14343,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>29.69638542615764</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>36.785351753499995</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>29.805450407751181</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>13.519013995743482</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>1.7404329297614463</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-10.183552534970087</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-10.183552534970087</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-0.87701740730499411</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-10.619812461344246</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-10.619812461344246</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-8.2204686916989456</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-1.0224373827630477</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>6.1755705304069108</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>8.5749065014635661</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>17.881441547253711</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>27.333396650376855</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>27.333396650376855</v>
       </c>
     </row>
@@ -14443,99 +14444,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>20.150438353659005</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>15.543494611511743</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>13.306026837671892</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>13.020831540156756</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>14.798966325170264</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>18.37495589566748</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>28.50889467580037</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>34.80390542685771</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>40.210983013565837</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>44.279691625052912</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>44.653378268410584</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>43.852707049467959</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>44.039473455309711</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>43.590075952478585</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>39.323280065368998</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>37.360647114349263</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>38.556301492660467</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>52.550502504999997</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>52.474215114587714</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>50.872948877501045</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>47.088280566455566</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>41.877176542567113</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>34.155998388658467</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>26.204230773251638</v>
       </c>
     </row>
@@ -35032,99 +35033,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>72.431923066217777</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>65.807643486803414</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>64.658154988885315</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>64.492981590710542</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>64.498066224497336</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>63.927664172734396</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>69.015620097414228</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>81.938402118416178</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>93.386479492673047</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>96.25606383446528</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>95.281978147694801</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>97.976419838275504</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>99.320449734449994</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>97.483207484519895</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>93.6740308053474</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>89.903812672979228</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>91.47233955890745</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>92.376063423759945</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>92.768165497048997</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>91.232425870658091</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>91.506539121868641</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>95.296554202425085</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>88.827922945912533</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>81.428061668819296</v>
       </c>
     </row>
@@ -35133,99 +35134,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>77.149824087270517</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>70.702715152501696</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>67.028951612505793</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>64.585954081820049</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>63.998225228830464</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>68.024889093985607</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>85.165206173827926</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>101.87841821574987</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>106.2502423200463</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>104.22875895519682</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>103.92641450850233</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>110.80922196336978</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>111.07804455475259</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>111.68628961000259</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>106.23809950729245</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>100.62815071964944</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>93.223095799205268</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>94.034994332775568</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>93.376062189588069</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>93.098188332502133</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>93.439421049509946</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>93.057759345694848</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>91.936732829192223</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>86.781960882790585</v>
       </c>
     </row>
@@ -35234,99 +35235,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>102.73270107573474</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>91.003406587281503</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>85.861242629306062</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>83.06796967608534</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>87.276644870756783</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>79.760720774961072</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>93.658082028464392</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>105.97747702408462</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>119.27206068673426</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>128.1731176298141</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>132.00209434618262</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>134.17599423509768</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>137.07048642254634</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>138.795475655649</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>139.36430753787499</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>134.14035498188076</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>133.59402569766499</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>129.22797635679433</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>129.24059435391621</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>130.01760558920031</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>129.29547565707449</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>133.51298088543109</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>132.65952208808025</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>119.44094871236918</v>
       </c>
     </row>
@@ -36051,99 +36052,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>72.431923066217777</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>65.807643486803414</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>64.658154988885315</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>64.492981590710542</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>64.498066224497336</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>63.927664172734396</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>69.015620097414228</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>81.938402118416178</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>93.386479492673047</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>96.25606383446528</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>95.281978147694801</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>97.976419838275504</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>99.320449734449994</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>97.483207484519895</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>93.6740308053474</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>89.903812672979228</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>91.47233955890745</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>92.376063423759945</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>92.768165497048997</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>91.232425870658091</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>91.506539121868641</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>95.296554202425085</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>88.827922945912533</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>81.428061668819296</v>
       </c>
     </row>
@@ -36152,99 +36153,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>77.149824087270517</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>70.702715152501696</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>67.028951612505793</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>64.585954081820049</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>63.998225228830464</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>68.024889093985607</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>85.165206173827926</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>101.87841821574987</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>106.2502423200463</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>104.22875895519682</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>103.92641450850233</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>110.80922196336978</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>111.07804455475259</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>111.68628961000259</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>106.23809950729245</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>100.62815071964944</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>93.223095799205268</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>94.034994332775568</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>93.376062189588069</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>93.098188332502133</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>93.439421049509946</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>93.057759345694848</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>91.936732829192223</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>86.781960882790585</v>
       </c>
     </row>
@@ -36253,99 +36254,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>102.73270107573474</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>91.003406587281503</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>85.861242629306062</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>83.06796967608534</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>87.276644870756783</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>79.760720774961072</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>93.658082028464392</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>105.97747702408462</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>119.27206068673426</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>128.1731176298141</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>132.00209434618262</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>134.17599423509768</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>137.07048642254634</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>138.795475655649</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>139.36430753787499</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>134.14035498188076</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>133.59402569766499</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>129.22797635679433</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>129.24059435391621</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>130.01760558920031</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>129.29547565707449</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>133.51298088543109</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>132.65952208808025</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>119.44094871236918</v>
       </c>
     </row>
@@ -37471,99 +37472,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>72.431923066217777</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>65.807643486803414</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>64.658154988885315</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>64.492981590710542</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>64.498066224497336</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>63.927664172734396</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>69.015620097414228</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>81.938402118416178</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>93.386479492673047</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>96.25606383446528</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>95.281978147694801</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>97.976419838275504</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>99.320449734449994</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>97.483207484519895</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>93.6740308053474</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>89.903812672979228</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>91.47233955890745</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>92.376063423759945</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>92.768165497048997</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>91.232425870658091</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>91.506539121868641</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>95.296554202425085</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>88.827922945912533</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>81.428061668819296</v>
       </c>
     </row>
@@ -37572,99 +37573,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>77.149824087270517</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>70.702715152501696</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>67.028951612505793</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>64.585954081820049</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>63.998225228830464</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>68.024889093985607</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>85.165206173827926</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>101.87841821574987</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>106.2502423200463</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>104.22875895519682</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>103.92641450850233</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>110.80922196336978</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>111.07804455475259</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>111.68628961000259</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>106.23809950729245</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>100.62815071964944</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>93.223095799205268</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>94.034994332775568</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>93.376062189588069</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>93.098188332502133</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>93.439421049509946</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>93.057759345694848</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>91.936732829192223</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>86.781960882790585</v>
       </c>
     </row>
@@ -37673,99 +37674,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>102.73270107573474</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>91.003406587281503</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>85.861242629306062</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>83.06796967608534</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>87.276644870756783</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>79.760720774961072</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>93.658082028464392</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>105.97747702408462</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>119.27206068673426</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>128.1731176298141</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>132.00209434618262</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>134.17599423509768</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>137.07048642254634</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>138.795475655649</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>139.36430753787499</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>134.14035498188076</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>133.59402569766499</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>129.22797635679433</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>129.24059435391621</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>130.01760558920031</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>129.29547565707449</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>133.51298088543109</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>132.65952208808025</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Summer, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>119.44094871236918</v>
       </c>
     </row>
@@ -38490,99 +38491,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>68.982783872588371</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>62.673946177908007</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>61.579195227509814</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>61.421887229248135</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>61.426729737616505</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>60.883489688318477</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>65.729161997537346</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>78.036573446110637</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>88.939504278736223</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>91.672441747109787</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>90.744741093042649</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>93.310876036452868</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>94.590904508999998</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>92.841149985257047</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>89.213362671759427</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>85.622678736170684</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>87.116513865626146</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>87.977203260723769</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>88.350633806713319</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>86.888024638721987</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>87.149084877970125</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>90.75862304992863</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>84.598021853250017</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>77.550534922685046</v>
       </c>
     </row>
@@ -38591,99 +38592,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>73.652608823999088</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>67.51839558285144</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>64.000493670389062</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>61.665309672018601</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>61.077580819029016</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>64.893304355717433</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>81.241423265075085</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>97.049937372141727</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>101.21082089525736</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>99.294807946695514</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>98.994806867423108</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>105.55417171286979</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>105.8229943042526</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>106.4312393595026</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>101.24672517181423</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>95.902796169733833</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>88.8211833555917</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>89.633081889162</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>88.974149745974501</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>88.696275888888565</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>89.037508605896377</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>88.655846902081279</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>87.69302487774543</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>82.811303071886741</v>
       </c>
     </row>
@@ -38692,99 +38693,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>98.017253574917376</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>86.852387425498861</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>81.936008924484568</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>79.267229285604586</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>83.247504287530262</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>76.070286909027402</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>89.329876459966968</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>100.95380290388914</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>113.61255267305545</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>122.09895906537862</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>125.73354956997575</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>127.8082405430868</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>130.57770084500856</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>132.24951178392772</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>132.79549472475</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>127.81918118138272</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>127.26968802079146</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>123.15020762632271</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>123.13084704533459</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>123.85762565717255</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>123.18613204167214</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>127.1846293208777</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>126.47663369573402</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>113.91510100481874</v>
       </c>
     </row>
@@ -39509,99 +39510,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>68.982783872588371</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>62.673946177908007</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>61.579195227509814</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>61.421887229248135</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>61.426729737616505</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>60.883489688318477</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>65.729161997537346</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>78.036573446110637</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>88.939504278736223</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>91.672441747109787</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>90.744741093042649</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>93.310876036452868</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>94.590904508999998</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>92.841149985257047</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>89.213362671759427</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>85.622678736170684</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>87.116513865626146</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>87.977203260723769</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>88.350633806713319</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>86.888024638721987</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>87.149084877970125</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>90.75862304992863</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>84.598021853250017</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>77.550534922685046</v>
       </c>
     </row>
@@ -39610,99 +39611,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>73.652608823999088</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>67.51839558285144</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>64.000493670389062</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>61.665309672018601</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>61.077580819029016</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>64.893304355717433</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>81.241423265075085</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>97.049937372141727</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>101.21082089525736</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>99.294807946695514</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>98.994806867423108</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>105.55417171286979</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>105.8229943042526</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>106.4312393595026</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>101.24672517181423</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>95.902796169733833</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>88.8211833555917</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>89.633081889162</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>88.974149745974501</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>88.696275888888565</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>89.037508605896377</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>88.655846902081279</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>87.69302487774543</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>82.811303071886741</v>
       </c>
     </row>
@@ -39711,99 +39712,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>98.017253574917376</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>86.852387425498861</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>81.936008924484568</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>79.267229285604586</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>83.247504287530262</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>76.070286909027402</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>89.329876459966968</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>100.95380290388914</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>113.61255267305545</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>122.09895906537862</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>125.73354956997575</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>127.8082405430868</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>130.57770084500856</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>132.24951178392772</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>132.79549472475</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>127.81918118138272</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>127.26968802079146</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>123.15020762632271</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>123.13084704533459</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>123.85762565717255</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>123.18613204167214</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>127.1846293208777</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>126.47663369573402</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>113.91510100481874</v>
       </c>
     </row>
@@ -40528,99 +40529,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>68.982783872588371</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>62.673946177908007</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>61.579195227509814</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>61.421887229248135</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>61.426729737616505</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>60.883489688318477</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>65.729161997537346</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>78.036573446110637</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>88.939504278736223</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>91.672441747109787</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>90.744741093042649</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>93.310876036452868</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>94.590904508999998</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>92.841149985257047</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>89.213362671759427</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>85.622678736170684</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>87.116513865626146</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>87.977203260723769</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>88.350633806713319</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>86.888024638721987</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>87.149084877970125</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>90.75862304992863</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>84.598021853250017</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>77.550534922685046</v>
       </c>
     </row>
@@ -40629,99 +40630,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>73.652608823999088</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>67.51839558285144</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>64.000493670389062</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>61.665309672018601</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>61.077580819029016</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>64.893304355717433</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>81.241423265075085</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>97.049937372141727</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>101.21082089525736</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>99.294807946695514</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>98.994806867423108</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>105.55417171286979</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>105.8229943042526</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>106.4312393595026</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>101.24672517181423</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>95.902796169733833</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>88.8211833555917</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>89.633081889162</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>88.974149745974501</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>88.696275888888565</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>89.037508605896377</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>88.655846902081279</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>87.69302487774543</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>82.811303071886741</v>
       </c>
     </row>
@@ -40730,99 +40731,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Summer, S3'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>98.017253574917376</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Summer, S3'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>86.852387425498861</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Summer, S3'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>81.936008924484568</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Summer, S3'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>79.267229285604586</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Summer, S3'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>83.247504287530262</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Summer, S3'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>76.070286909027402</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Summer, S3'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>89.329876459966968</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Summer, S3'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>100.95380290388914</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Summer, S3'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>113.61255267305545</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Summer, S3'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>122.09895906537862</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Summer, S3'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>125.73354956997575</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Summer, S3'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>127.8082405430868</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Summer, S3'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>130.57770084500856</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Summer, S3'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>132.24951178392772</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Summer, S3'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>132.79549472475</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Summer, S3'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>127.81918118138272</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Summer, S3'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>127.26968802079146</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Summer, S3'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>123.15020762632271</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Summer, S3'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>123.13084704533459</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Summer, S3'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>123.85762565717255</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Summer, S3'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>123.18613204167214</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Summer, S3'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>127.1846293208777</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Summer, S3'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>126.47663369573402</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Summer, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Summer, S3'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>113.91510100481874</v>
       </c>
     </row>
@@ -43200,99 +43201,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>-23.087713675110962</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>-30.016862726521804</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>-33.084375538447404</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>-30.191225991967489</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>-32.360932316288356</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>-33.106816578149996</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>-28.69335630071777</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>-4.4640415937063258</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>14.329245035155139</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>20.860595493580021</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>16.398293040451403</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>21.842976575218508</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>19.38389154068317</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>19.967516973761892</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>10.302505973049477</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>2.6045982220771964</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>5.7941932147753139</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>7.0379414117139527</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>4.2400946558680506</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>-0.79097467937807475</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>-3.0878380910792229</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>-2.1482889612626783</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>-10.302640963376213</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>-13.945463393810151</v>
       </c>
     </row>
@@ -43301,99 +43302,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>-29.219414267103787</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-29.219414267103787</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-33.922016804139389</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-15.401008112602241</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>3.1923586980106378</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>10.137752485007447</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>10.137752485007447</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>9.2695636963266903</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>13.031627044887104</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>17.661879182128274</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>18.204506936176589</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>10.210095084050607</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>7.96730379335441</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>-8.2386021096110067</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>-10.553735958615372</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>-29.508784663276433</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>-29.508784663276433</v>
       </c>
     </row>
@@ -43402,99 +43403,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>23.586680118547804</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>18.071967520143197</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>17.125896193325975</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>14.95731102469431</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>17.218825273939423</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>7.9915236868613855</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>13.943342461991151</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>26.793779979996941</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>38.976770620235918</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>46.315244315762406</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>50.561990442090611</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>52.407953025294802</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>54.763689243207182</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>55.178027630249993</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>54.786375105123483</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>52.962615084545682</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>50.40237736318381</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>44.726434744243811</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>44.519506738005461</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>42.351489612006667</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>38.175551765809416</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>45.765031240610732</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>41.00713379297013</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>33.000890311655397</v>
       </c>
     </row>
@@ -43751,99 +43752,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>-23.087713675110962</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>-30.016862726521804</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>-33.084375538447404</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>-30.191225991967489</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>-32.360932316288356</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>-33.106816578149996</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>-28.69335630071777</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>-4.4640415937063258</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>14.329245035155139</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>20.860595493580021</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>16.398293040451403</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>21.842976575218508</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>19.38389154068317</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>19.967516973761892</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>10.302505973049477</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>2.6045982220771964</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>5.7941932147753139</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>7.0379414117139527</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>4.2400946558680506</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>-0.79097467937807475</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>-3.0878380910792229</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>-2.1482889612626783</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>-10.302640963376213</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>-13.945463393810151</v>
       </c>
     </row>
@@ -43852,99 +43853,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>-29.219414267103787</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-29.219414267103787</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-33.922016804139389</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-15.401008112602241</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>3.1923586980106378</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>10.137752485007447</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>10.137752485007447</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>9.2695636963266903</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>13.031627044887104</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>17.661879182128274</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>18.204506936176589</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>10.210095084050607</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>7.96730379335441</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>-8.2386021096110067</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>-10.553735958615372</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>-29.508784663276433</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>-29.508784663276433</v>
       </c>
     </row>
@@ -43953,99 +43954,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>23.586680118547804</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>18.071967520143197</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>17.125896193325975</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>14.95731102469431</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>17.218825273939423</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>7.9915236868613855</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>13.943342461991151</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>26.793779979996941</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>38.976770620235918</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>46.315244315762406</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>50.561990442090611</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>52.407953025294802</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>54.763689243207182</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>55.178027630249993</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>54.786375105123483</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>52.962615084545682</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>50.40237736318381</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>44.726434744243811</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>44.519506738005461</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>42.351489612006667</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>38.175551765809416</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>45.765031240610732</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>41.00713379297013</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>33.000890311655397</v>
       </c>
     </row>
@@ -44302,99 +44303,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>-23.087713675110962</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>-30.016862726521804</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>-33.084375538447404</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>-30.191225991967489</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>-32.360932316288356</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>-33.106816578149996</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>-28.69335630071777</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>-4.4640415937063258</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>14.329245035155139</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>20.860595493580021</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>16.398293040451403</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>21.842976575218508</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>19.38389154068317</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>19.967516973761892</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>10.302505973049477</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>2.6045982220771964</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>5.7941932147753139</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>7.0379414117139527</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>4.2400946558680506</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>-0.79097467937807475</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>-3.0878380910792229</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>-2.1482889612626783</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>-10.302640963376213</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>-13.945463393810151</v>
       </c>
     </row>
@@ -44403,99 +44404,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>-29.219414267103787</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-29.219414267103787</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-33.922016804139389</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-38.624619341174999</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-15.401008112602241</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>3.1923586980106378</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>10.137752485007447</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>10.137752485007447</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>9.2695636963266903</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>13.031627044887104</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>17.661879182128274</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>18.204506936176589</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>10.210095084050607</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>7.96730379335441</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>-1.2932005625979148</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>-8.2386021096110067</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>-10.553735958615372</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>-29.508784663276433</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>-29.508784663276433</v>
       </c>
     </row>
@@ -44504,99 +44505,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>23.586680118547804</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>18.071967520143197</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>17.125896193325975</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>14.95731102469431</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>17.218825273939423</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>7.9915236868613855</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>13.943342461991151</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>26.793779979996941</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>38.976770620235918</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>46.315244315762406</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>50.561990442090611</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>52.407953025294802</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>54.763689243207182</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>55.178027630249993</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>54.786375105123483</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>52.962615084545682</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>50.40237736318381</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>44.726434744243811</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>44.519506738005461</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>42.351489612006667</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>38.175551765809416</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>45.765031240610732</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>41.00713379297013</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>33.000890311655397</v>
       </c>
     </row>
@@ -45872,99 +45873,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>-21.988298738200918</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>-28.587488310973146</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>-31.508929084235625</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>-28.753548563778555</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>-30.819935539322245</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>-31.530301502999997</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>-27.327006000683589</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>-4.2514681844822144</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>13.646900033481085</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>19.867233803409544</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>15.61742194328705</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>20.802834833541436</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>18.46084908636492</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>19.016682832154185</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>9.8119104505233121</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>2.4805697353116156</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>5.5182792521669652</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>6.7028013444894778</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>4.0381853865409996</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>-0.75330921845530929</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>-2.9407981819802127</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>-2.0459894869168362</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>-9.8120390127392483</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>-13.28139370839062</v>
       </c>
     </row>
@@ -45973,99 +45974,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>-27.828013587717894</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-27.828013587717894</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-32.306682670608943</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-14.667626773906898</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>3.0403416171529876</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>9.6550023666737577</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>9.6550023666737577</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>8.828155901263516</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>12.411073376082957</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>16.820837316312641</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>17.337625653501515</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>9.7239000800481961</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>7.5879083746232467</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>-7.8462877234390547</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>-10.051177103443209</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>-28.103604441215648</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>-28.103604441215648</v>
       </c>
     </row>
@@ -46074,99 +46075,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>22.46350487480743</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>17.211397638231617</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>16.310377326977118</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>14.245058118756482</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>16.39888121327564</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>7.6109749398679858</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>13.279373773324906</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>25.517885695235179</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>37.120733924034198</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>44.10975649120229</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>48.154276611514859</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>49.912336214566473</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>52.15589451734018</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>52.550502504999997</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>52.177500100117605</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>50.440585794805415</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>48.002264155413151</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>42.596604518327432</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>42.399530226671864</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>40.334752011434908</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>36.357668348389922</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>43.585744038676879</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>39.054413136162026</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>31.429419344433704</v>
       </c>
     </row>
@@ -46423,99 +46424,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>-21.988298738200918</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>-28.587488310973146</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>-31.508929084235625</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>-28.753548563778555</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>-30.819935539322245</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>-31.530301502999997</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>-27.327006000683589</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>-4.2514681844822144</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>13.646900033481085</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>19.867233803409544</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>15.61742194328705</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>20.802834833541436</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>18.46084908636492</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>19.016682832154185</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>9.8119104505233121</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>2.4805697353116156</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>5.5182792521669652</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>6.7028013444894778</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>4.0381853865409996</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>-0.75330921845530929</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>-2.9407981819802127</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>-2.0459894869168362</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>-9.8120390127392483</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>-13.28139370839062</v>
       </c>
     </row>
@@ -46524,99 +46525,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>-27.828013587717894</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-27.828013587717894</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-32.306682670608943</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-14.667626773906898</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>3.0403416171529876</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>9.6550023666737577</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>9.6550023666737577</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>8.828155901263516</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>12.411073376082957</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>16.820837316312641</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>17.337625653501515</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>9.7239000800481961</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>7.5879083746232467</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>-7.8462877234390547</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>-10.051177103443209</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>-28.103604441215648</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>-28.103604441215648</v>
       </c>
     </row>
@@ -46625,99 +46626,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>22.46350487480743</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>17.211397638231617</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>16.310377326977118</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>14.245058118756482</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>16.39888121327564</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>7.6109749398679858</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>13.279373773324906</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>25.517885695235179</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>37.120733924034198</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>44.10975649120229</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>48.154276611514859</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>49.912336214566473</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>52.15589451734018</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>52.550502504999997</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>52.177500100117605</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>50.440585794805415</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>48.002264155413151</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>42.596604518327432</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>42.399530226671864</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>40.334752011434908</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>36.357668348389922</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>43.585744038676879</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>39.054413136162026</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>31.429419344433704</v>
       </c>
     </row>
@@ -46974,99 +46975,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>-21.988298738200918</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>-28.587488310973146</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>-31.508929084235625</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>-28.753548563778555</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>-30.819935539322245</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>-31.530301502999997</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>-27.327006000683589</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>-4.2514681844822144</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>13.646900033481085</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>19.867233803409544</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>15.61742194328705</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>20.802834833541436</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>18.46084908636492</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>19.016682832154185</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>9.8119104505233121</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>2.4805697353116156</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>5.5182792521669652</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>6.7028013444894778</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>4.0381853865409996</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>-0.75330921845530929</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>-2.9407981819802127</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>-2.0459894869168362</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>-9.8120390127392483</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>-13.28139370839062</v>
       </c>
     </row>
@@ -47075,99 +47076,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>-27.828013587717894</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-27.828013587717894</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-32.306682670608943</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-36.785351753499995</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-14.667626773906898</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>3.0403416171529876</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>9.6550023666737577</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>9.6550023666737577</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>8.828155901263516</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>12.411073376082957</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>16.820837316312641</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>17.337625653501515</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>9.7239000800481961</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>7.5879083746232467</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>-1.2316195834265857</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>-7.8462877234390547</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>-10.051177103443209</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>-28.103604441215648</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>-28.103604441215648</v>
       </c>
     </row>
@@ -47176,99 +47177,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>22.46350487480743</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>17.211397638231617</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>16.310377326977118</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>14.245058118756482</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>16.39888121327564</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>7.6109749398679858</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>13.279373773324906</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>25.517885695235179</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>37.120733924034198</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>44.10975649120229</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>48.154276611514859</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>49.912336214566473</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>52.15589451734018</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>52.550502504999997</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>52.177500100117605</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>50.440585794805415</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>48.002264155413151</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>42.596604518327432</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>42.399530226671864</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>40.334752011434908</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>36.357668348389922</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>43.585744038676879</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>39.054413136162026</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[2]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>31.429419344433704</v>
       </c>
     </row>
@@ -65705,6 +65706,792 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
+  <dimension ref="A1:Y10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1</v>
+      </c>
+      <c r="X10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4396AE8B-6573-4D19-B08B-FAF92BAFBCC8}">
   <dimension ref="A1:Y28"/>
@@ -65797,99 +66584,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>63.213515250847408</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>58.962298506097504</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>55.868589827316192</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>55.473288462311977</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>56.142422269413508</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>61.712644058650092</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>73.638223854663295</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>88.637970856219326</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>96.502664630281259</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>97.706036425584998</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>95.069277891055165</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>95.55927765624395</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>95.48074971928547</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>93.921600216976501</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>88.569050186615982</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>86.031514177159323</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>89.597444655050381</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>99.320449734449994</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>98.960414674985657</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>96.911578248879408</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>95.244949892540973</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>89.270136192912545</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>78.094759798046042</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y2*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A2,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>70.851770555479249</v>
       </c>
     </row>
@@ -65898,99 +66685,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>66.211127907330052</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>61.91284679901942</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>55.991746461524187</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>59.784161238137209</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>58.99927218910414</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>60.990241798514383</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>90.166919531279547</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>97.823905798628218</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>107.14508855453973</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>107.39481110054246</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>101.22692599399196</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>110.80922196336978</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>104.79713940825049</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>98.758319472419373</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>95.889944876267023</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>89.669994155257498</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>89.113556678048269</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>95.107917172012705</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>94.448985028825206</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>95.57936888358681</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>93.357537225843714</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>84.075566747803592</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>73.405203690121596</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y3*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A3,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>71.703068248593326</v>
       </c>
     </row>
@@ -65999,99 +66786,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
+        <f>('[2]Pc, Winter, S2'!B4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!B$2)</f>
         <v>94.55765377311468</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
+        <f>('[2]Pc, Winter, S2'!C4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!C$2)</f>
         <v>83.767143510863832</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
+        <f>('[2]Pc, Winter, S2'!D4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!D$2)</f>
         <v>78.686574486381261</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
+        <f>('[2]Pc, Winter, S2'!E4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!E$2)</f>
         <v>77.613969665359249</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
+        <f>('[2]Pc, Winter, S2'!F4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!F$2)</f>
         <v>80.499186339984021</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
+        <f>('[2]Pc, Winter, S2'!G4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!G$2)</f>
         <v>86.299804374170577</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
+        <f>('[2]Pc, Winter, S2'!H4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!H$2)</f>
         <v>104.17254994430661</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
+        <f>('[2]Pc, Winter, S2'!I4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!I$2)</f>
         <v>113.84657534753339</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
+        <f>('[2]Pc, Winter, S2'!J4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!J$2)</f>
         <v>120.41026295376072</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
+        <f>('[2]Pc, Winter, S2'!K4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!K$2)</f>
         <v>124.68554662641563</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
+        <f>('[2]Pc, Winter, S2'!L4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!L$2)</f>
         <v>125.56759585112142</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
+        <f>('[2]Pc, Winter, S2'!M4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!M$2)</f>
         <v>124.35217650766153</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
+        <f>('[2]Pc, Winter, S2'!N4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!N$2)</f>
         <v>123.91797036261477</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
+        <f>('[2]Pc, Winter, S2'!O4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!O$2)</f>
         <v>121.98566782056463</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
+        <f>('[2]Pc, Winter, S2'!P4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!P$2)</f>
         <v>118.23399656476357</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
+        <f>('[2]Pc, Winter, S2'!Q4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Q$2)</f>
         <v>116.09533891801264</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
+        <f>('[2]Pc, Winter, S2'!R4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!R$2)</f>
         <v>119.5772710037803</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
+        <f>('[2]Pc, Winter, S2'!S4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!S$2)</f>
         <v>136.08684949686005</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
+        <f>('[2]Pc, Winter, S2'!T4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!T$2)</f>
         <v>138.0665371591152</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
+        <f>('[2]Pc, Winter, S2'!U4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!U$2)</f>
         <v>138.60309609224217</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
+        <f>('[2]Pc, Winter, S2'!V4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!V$2)</f>
         <v>134.84226481424636</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
+        <f>('[2]Pc, Winter, S2'!W4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!W$2)</f>
         <v>128.34241758107419</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
+        <f>('[2]Pc, Winter, S2'!X4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!X$2)</f>
         <v>119.28521058725715</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[2]Pc, Winter, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
+        <f>('[2]Pc, Winter, S2'!Y4*Main!$B$5)+(_xlfn.IFNA(VLOOKUP($A4,'FL Ratio'!$A$3:$B$10,2,FALSE),0)*'FL Characterization'!Y$2)</f>
         <v>106.34354915391876</v>
       </c>
     </row>

--- a/data/CS4/case9/case9_2025.xlsx
+++ b/data/CS4/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3F26D8-E1CB-423D-A3A7-FDF957658326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF5351-8AE8-44E6-903C-6290D07B2835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" firstSheet="71" activeTab="82" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
   <si>
     <t>numScenarios</t>
   </si>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$4)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12406,8 +12406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12430,33 +12430,33 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2">
+        <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3">
+        <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15815,99 +15815,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -15916,99 +15916,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -16017,99 +16017,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16745,99 +16745,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -16846,99 +16846,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -16947,99 +16947,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -17675,99 +17675,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -17776,99 +17776,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -17877,99 +17877,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -18605,99 +18605,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -18706,99 +18706,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -18807,99 +18807,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -19597,99 +19597,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -19698,99 +19698,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -19799,99 +19799,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -20527,99 +20527,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -20628,99 +20628,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -20729,99 +20729,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -21457,99 +21457,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -21558,99 +21558,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -21659,99 +21659,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$5</f>
-        <v>0</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$5</f>
-        <v>0</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$5</f>
-        <v>0</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$5</f>
-        <v>0</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$5</f>
-        <v>0</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$5</f>
-        <v>0</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$5</f>
-        <v>0</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$5</f>
-        <v>0</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$5</f>
-        <v>0</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$5</f>
-        <v>0</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$5</f>
-        <v>0</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$5</f>
-        <v>0</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$5</f>
-        <v>0</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$5</f>
-        <v>0</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$5</f>
-        <v>0</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$5</f>
-        <v>0</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$5</f>
-        <v>0</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$5</f>
-        <v>0</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$5</f>
-        <v>0</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$5</f>
-        <v>0</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$5</f>
-        <v>0</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$5</f>
-        <v>0</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$5</f>
-        <v>0</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$5</f>
-        <v>0</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -22387,99 +22387,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -22488,99 +22488,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -22589,99 +22589,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$6</f>
-        <v>0</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$6</f>
-        <v>0</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$6</f>
-        <v>0</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$6</f>
-        <v>0</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$6</f>
-        <v>0</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$6</f>
-        <v>0</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$6</f>
-        <v>0</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$6</f>
-        <v>0</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$6</f>
-        <v>0</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$6</f>
-        <v>0</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$6</f>
-        <v>0</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$6</f>
-        <v>0</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$6</f>
-        <v>0</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$6</f>
-        <v>0</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$6</f>
-        <v>0</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$6</f>
-        <v>0</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$6</f>
-        <v>0</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$6</f>
-        <v>0</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$6</f>
-        <v>0</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$6</f>
-        <v>0</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$6</f>
-        <v>0</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$6</f>
-        <v>0</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$6</f>
-        <v>0</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$6</f>
-        <v>0</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -23317,99 +23317,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -23418,99 +23418,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -23519,99 +23519,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!B$7</f>
-        <v>0</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!C$7</f>
-        <v>0</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!D$7</f>
-        <v>0</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!E$7</f>
-        <v>0</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!F$7</f>
-        <v>0</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!G$7</f>
-        <v>0</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!H$7</f>
-        <v>0</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!I$7</f>
-        <v>0</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!J$7</f>
-        <v>0</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!K$7</f>
-        <v>0</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!L$7</f>
-        <v>0</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!M$7</f>
-        <v>0</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!N$7</f>
-        <v>0</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!O$7</f>
-        <v>0</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!P$7</f>
-        <v>0</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Q$7</f>
-        <v>0</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!R$7</f>
-        <v>0</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!S$7</f>
-        <v>0</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!T$7</f>
-        <v>0</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!U$7</f>
-        <v>0</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!V$7</f>
-        <v>0</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!W$7</f>
-        <v>0</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!X$7</f>
-        <v>0</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Winter'!Y$7</f>
-        <v>0</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -48548,99 +48548,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -48649,99 +48649,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -48750,99 +48750,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -49478,99 +49478,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -49579,99 +49579,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -49680,99 +49680,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -50408,99 +50408,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -50509,99 +50509,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -50610,99 +50610,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -51338,99 +51338,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -51439,99 +51439,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -51540,99 +51540,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -52268,99 +52268,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -52369,99 +52369,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -52470,99 +52470,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -54217,99 +54217,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -54318,99 +54318,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -54419,99 +54419,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -55147,99 +55147,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -55248,99 +55248,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -55349,99 +55349,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$5</f>
-        <v>0</v>
+        <v>3.9293548010186945</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$5</f>
-        <v>0</v>
+        <v>3.5369766595768501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$5</f>
-        <v>0</v>
+        <v>3.6448799689354083</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$5</f>
-        <v>0</v>
+        <v>3.5792956677487968</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$5</f>
-        <v>0</v>
+        <v>3.069660248516735</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$5</f>
-        <v>0</v>
+        <v>2.9059693272137026</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$5</f>
-        <v>0</v>
+        <v>3.2034387663718795</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$5</f>
-        <v>0</v>
+        <v>2.9141199037277503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$5</f>
-        <v>0</v>
+        <v>2.3955936891301919</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$5</f>
-        <v>0</v>
+        <v>1.7316719579088768</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$5</f>
-        <v>0</v>
+        <v>1.7771710175752826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$5</f>
-        <v>0</v>
+        <v>1.1017418560394046</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$5</f>
-        <v>0</v>
+        <v>0.903142695622971</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$5</f>
-        <v>0</v>
+        <v>0.96081719467144278</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$5</f>
-        <v>0</v>
+        <v>1.2829789908205531</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$5</f>
-        <v>0</v>
+        <v>1.6228730885480798</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$5</f>
-        <v>0</v>
+        <v>1.9152640210455616</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$5</f>
-        <v>0</v>
+        <v>2.6304349322735927</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$5</f>
-        <v>0</v>
+        <v>2.3925885592745995</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$5</f>
-        <v>0</v>
+        <v>2.1248933728870476</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$5</f>
-        <v>0</v>
+        <v>3.15914709504086</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$5</f>
-        <v>0</v>
+        <v>3.4006078361132879</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$5</f>
-        <v>0</v>
+        <v>3.3043766819657447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$5</f>
-        <v>0</v>
+        <v>4.8238636964065833</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56077,99 +56077,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -56178,99 +56178,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -56279,99 +56279,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$6</f>
-        <v>0</v>
+        <v>5.1944562838217294</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$6</f>
-        <v>0</v>
+        <v>4.2632298282111494</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$6</f>
-        <v>0</v>
+        <v>3.8596350731315079</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$6</f>
-        <v>0</v>
+        <v>3.3847498315295077</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$6</f>
-        <v>0</v>
+        <v>3.034213150270574</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$6</f>
-        <v>0</v>
+        <v>2.5917353481723504</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$6</f>
-        <v>0</v>
+        <v>2.4286974576271185</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$6</f>
-        <v>0</v>
+        <v>2.2591128445987336</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$6</f>
-        <v>0</v>
+        <v>2.1221338370430871</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$6</f>
-        <v>0</v>
+        <v>2.3690879620175624</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$6</f>
-        <v>0</v>
+        <v>2.2152716325045945</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$6</f>
-        <v>0</v>
+        <v>2.5600367444353682</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$6</f>
-        <v>0</v>
+        <v>2.817266294414948</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$6</f>
-        <v>0</v>
+        <v>2.707975864049418</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$6</f>
-        <v>0</v>
+        <v>3.0911265889830513</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$6</f>
-        <v>0</v>
+        <v>2.724171502960997</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$6</f>
-        <v>0</v>
+        <v>2.5719418725750454</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$6</f>
-        <v>0</v>
+        <v>2.6477241806207878</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$6</f>
-        <v>0</v>
+        <v>2.5407154463191746</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$6</f>
-        <v>0</v>
+        <v>2.6657952445374722</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$6</f>
-        <v>0</v>
+        <v>2.4981067924239331</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$6</f>
-        <v>0</v>
+        <v>2.1216569736573412</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$6</f>
-        <v>0</v>
+        <v>2.3830690218501123</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$6</f>
-        <v>0</v>
+        <v>2.2802310598325501</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -57007,99 +57007,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -57108,99 +57108,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -57209,99 +57209,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!B$7</f>
-        <v>0</v>
+        <v>4.4868356148058446</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!C$7</f>
-        <v>0</v>
+        <v>4.1701362628514005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!D$7</f>
-        <v>0</v>
+        <v>5.0289621080161817</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!E$7</f>
-        <v>0</v>
+        <v>5.1106079208431021</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!F$7</f>
-        <v>0</v>
+        <v>4.5535812569249394</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!G$7</f>
-        <v>0</v>
+        <v>4.0176154139503719</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!H$7</f>
-        <v>0</v>
+        <v>2.9288381303305928</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!I$7</f>
-        <v>0</v>
+        <v>2.5081821227034968</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!J$7</f>
-        <v>0</v>
+        <v>2.5926748589244757</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!K$7</f>
-        <v>0</v>
+        <v>2.4356818083434248</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!L$7</f>
-        <v>0</v>
+        <v>2.663717075935994</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!M$7</f>
-        <v>0</v>
+        <v>2.766745535829318</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!N$7</f>
-        <v>0</v>
+        <v>2.2745321729495735</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!O$7</f>
-        <v>0</v>
+        <v>2.4079498299363546</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!P$7</f>
-        <v>0</v>
+        <v>3.0878704681903679</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Q$7</f>
-        <v>0</v>
+        <v>4.0227078963642446</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!R$7</f>
-        <v>0</v>
+        <v>3.938282357185189</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!S$7</f>
-        <v>0</v>
+        <v>4.2385277590249686</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!T$7</f>
-        <v>0</v>
+        <v>4.1199796954314731</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!U$7</f>
-        <v>0</v>
+        <v>4.6567438448555745</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!V$7</f>
-        <v>0</v>
+        <v>4.7153646061480581</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!W$7</f>
-        <v>0</v>
+        <v>4.5546692880517403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!X$7</f>
-        <v>0</v>
+        <v>4.1890166114818728</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[2]Profiles, RES, Summer'!Y$7</f>
-        <v>0</v>
+        <v>4.0753095712334773</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -65710,8 +65710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49630D89-783A-49F7-9E51-4F1FD5546230}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS4/case9/case9_2025.xlsx
+++ b/data/CS4/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8EE9B4-7B28-4657-B4CB-1A4C8371C199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABE71D-4FE4-4F22-BF00-EC572C019E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39360" yWindow="-11010" windowWidth="13845" windowHeight="7980" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$4)</f>
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12365,8 +12365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12404,7 +12404,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -12415,7 +12415,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15774,99 +15774,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -15875,99 +15875,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -15976,99 +15976,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -16704,99 +16704,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -16805,99 +16805,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -16906,99 +16906,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -17634,99 +17634,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -17735,99 +17735,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -17836,99 +17836,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -18564,99 +18564,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -18665,99 +18665,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -18766,99 +18766,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -19556,99 +19556,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -19657,99 +19657,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -19758,99 +19758,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -20486,99 +20486,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -20587,99 +20587,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -20688,99 +20688,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -21416,99 +21416,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -21517,99 +21517,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -21618,99 +21618,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>5.1030581831411617</v>
+        <v>12.757645457852904</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>4.7159688794357999</v>
+        <v>11.789922198589501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>4.9929862588156277</v>
+        <v>12.482465647039069</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>4.9712439829844399</v>
+        <v>12.4281099574611</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>4.092880331355647</v>
+        <v>10.232200828389118</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>4.1513847531624322</v>
+        <v>10.37846188290608</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>4.1603100861972457</v>
+        <v>10.400775215493114</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>3.7360511586253216</v>
+        <v>9.3401278965633043</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>3.3740756184932281</v>
+        <v>8.4351890462330701</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>2.4389745886040521</v>
+        <v>6.0974364715101297</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>2.2495835665509905</v>
+        <v>5.6239589163774761</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>1.5092354192320609</v>
+        <v>3.7730885480801524</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.2543648550319042</v>
+        <v>3.1359121375797603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.2010214933393035</v>
+        <v>3.0025537333482588</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>1.6662064815851338</v>
+        <v>4.1655162039628344</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>2.2539904007612219</v>
+        <v>5.6349760019030546</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>2.5200842382178439</v>
+        <v>6.3002105955446099</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>3.4610985950968325</v>
+        <v>8.6527464877420819</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>3.148142841150789</v>
+        <v>7.8703571028769721</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>2.9928075674465466</v>
+        <v>7.4820189186163661</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>3.9489338688010749</v>
+        <v>9.8723346720026868</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>4.7230664390462334</v>
+        <v>11.807666097615583</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>4.4653738945483044</v>
+        <v>11.16343473637076</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>6.3471890742191874</v>
+        <v>15.867972685547969</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -22346,99 +22346,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -22447,99 +22447,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -22548,99 +22548,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>6.9259417117623041</v>
+        <v>17.314854279405761</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>6.0903283260159284</v>
+        <v>15.225820815039819</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>5.0125130819889705</v>
+        <v>12.531282704972426</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>4.3394228609352661</v>
+        <v>10.848557152338165</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>4.0456175336940987</v>
+        <v>10.114043834235247</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>3.2396691852154378</v>
+        <v>8.0991729630385958</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>3.1541525423728811</v>
+        <v>7.8853813559322026</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>2.859636512150296</v>
+        <v>7.1490912803757398</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>2.9474081070042879</v>
+        <v>7.3685202675107195</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>3.1172210026546869</v>
+        <v>7.7930525066367178</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>3.1201008908515417</v>
+        <v>7.8002522271288539</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>3.6571953491933833</v>
+        <v>9.1429883729834582</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>3.6587873953440879</v>
+        <v>9.1469684883602209</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>3.7095559781498877</v>
+        <v>9.2738899453747194</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>4.1771980932203396</v>
+        <v>10.44299523305085</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>3.4483183581784771</v>
+        <v>8.620795895446193</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>3.5721414896875632</v>
+        <v>8.9303537242189073</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>3.7824631151725545</v>
+        <v>9.4561577879313869</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>3.2996304497651616</v>
+        <v>8.2490761244129054</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>3.4176862109454769</v>
+        <v>8.5442155273636917</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>3.2027010159281195</v>
+        <v>8.0067525398202992</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>2.9063794159689604</v>
+        <v>7.2659485399224009</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>2.9788362773126402</v>
+        <v>7.4470906932816012</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>3.2574729426179294</v>
+        <v>8.143682356544824</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -23276,99 +23276,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -23377,99 +23377,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -23478,99 +23478,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>6.319486781416682</v>
+        <v>15.798716953541705</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>5.8734313561287337</v>
+        <v>14.683578390321832</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>6.3657748202736473</v>
+        <v>15.91443705068412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>7.0980665567265309</v>
+        <v>17.745166391816326</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>6.0714416758999192</v>
+        <v>15.178604189749798</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>5.1507889922440668</v>
+        <v>12.876972480610165</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>3.7073900383931555</v>
+        <v>9.2684750959828897</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>3.3002396351361796</v>
+        <v>8.2505990878404489</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>3.3671102063954232</v>
+        <v>8.4177755159885592</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>3.2914619031667907</v>
+        <v>8.2286547579169778</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>3.3296463449199925</v>
+        <v>8.3241158622999816</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>3.5022095390244528</v>
+        <v>8.7555238475611326</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>3.203566440774047</v>
+        <v>8.0089161019351174</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>3.08711516658507</v>
+        <v>7.717787916462675</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>4.229959545466258</v>
+        <v>10.574898863665643</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>5.5105587621428009</v>
+        <v>13.776396905357002</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>5.6261176531216979</v>
+        <v>14.065294132804246</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>5.7277402148986054</v>
+        <v>14.319350537246514</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>5.8856852791878183</v>
+        <v>14.714213197969544</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>6.2089917931407657</v>
+        <v>15.522479482851914</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>6.1238501378546211</v>
+        <v>15.309625344636551</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>5.9929859053312375</v>
+        <v>14.982464763328093</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>5.7383789198381816</v>
+        <v>14.345947299595455</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>5.2926098327707489</v>
+        <v>13.231524581926873</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -44725,7 +44725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046E4C95-D1F9-4584-8CBB-5D0A21D88C72}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
@@ -48507,99 +48507,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -48608,99 +48608,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -48709,99 +48709,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -49437,99 +49437,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -49538,99 +49538,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -49639,99 +49639,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -50367,99 +50367,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -50468,99 +50468,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -50569,99 +50569,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -51297,99 +51297,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -51398,99 +51398,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -51499,99 +51499,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -52227,99 +52227,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -52328,99 +52328,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -52429,99 +52429,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -54176,99 +54176,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -54277,99 +54277,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -54378,99 +54378,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -55106,99 +55106,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -55207,99 +55207,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -55308,99 +55308,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>3.9293548010186945</v>
+        <v>9.8233870025467365</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>3.5369766595768501</v>
+        <v>8.8424416489421258</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>3.6448799689354083</v>
+        <v>9.1121999223385206</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>3.5792956677487968</v>
+        <v>8.9482391693719929</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>3.069660248516735</v>
+        <v>7.6741506212918376</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>2.9059693272137026</v>
+        <v>7.2649233180342572</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>3.2034387663718795</v>
+        <v>8.008596915929699</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>2.9141199037277503</v>
+        <v>7.2852997593193765</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>2.3955936891301919</v>
+        <v>5.9889842228254802</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>1.7316719579088768</v>
+        <v>4.3291798947721922</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>1.7771710175752826</v>
+        <v>4.4429275439382065</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.1017418560394046</v>
+        <v>2.7543546400985113</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.903142695622971</v>
+        <v>2.2578567390574276</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.96081719467144278</v>
+        <v>2.4020429866786071</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.2829789908205531</v>
+        <v>3.2074474770513826</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>1.6228730885480798</v>
+        <v>4.0571827213701992</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>1.9152640210455616</v>
+        <v>4.7881600526139039</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>2.6304349322735927</v>
+        <v>6.5760873306839818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>2.3925885592745995</v>
+        <v>5.9814713981864989</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>2.1248933728870476</v>
+        <v>5.3122334322176199</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>3.15914709504086</v>
+        <v>7.8978677376021507</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>3.4006078361132879</v>
+        <v>8.5015195902832197</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>3.3043766819657447</v>
+        <v>8.2609417049143623</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>4.8238636964065833</v>
+        <v>12.059659241016456</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56036,99 +56036,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -56137,99 +56137,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -56238,99 +56238,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>5.1944562838217294</v>
+        <v>12.986140709554322</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>4.2632298282111494</v>
+        <v>10.658074570527875</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>3.8596350731315079</v>
+        <v>9.6490876828287693</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>3.3847498315295077</v>
+        <v>8.4618745788237693</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>3.034213150270574</v>
+        <v>7.5855328756764342</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>2.5917353481723504</v>
+        <v>6.4793383704308756</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>2.4286974576271185</v>
+        <v>6.0717436440677961</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>2.2591128445987336</v>
+        <v>5.6477821114968343</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>2.1221338370430871</v>
+        <v>5.3053345926077178</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>2.3690879620175624</v>
+        <v>5.9227199050439054</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>2.2152716325045945</v>
+        <v>5.5381790812614859</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>2.5600367444353682</v>
+        <v>6.4000918610884208</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>2.817266294414948</v>
+        <v>7.0431657360373698</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>2.707975864049418</v>
+        <v>6.7699396601235442</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>3.0911265889830513</v>
+        <v>7.7278164724576284</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>2.724171502960997</v>
+        <v>6.8104287574024926</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>2.5719418725750454</v>
+        <v>6.4298546814376136</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>2.6477241806207878</v>
+        <v>6.6193104515519696</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>2.5407154463191746</v>
+        <v>6.3517886157979362</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>2.6657952445374722</v>
+        <v>6.6644881113436805</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>2.4981067924239331</v>
+        <v>6.2452669810598325</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>2.1216569736573412</v>
+        <v>5.304142434143353</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>2.3830690218501123</v>
+        <v>5.9576725546252804</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>2.2802310598325501</v>
+        <v>5.7005776495813762</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -56966,99 +56966,99 @@
       </c>
       <c r="B5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y5" s="9">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -57067,99 +57067,99 @@
       </c>
       <c r="B6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y6" s="9">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -57168,99 +57168,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>4.4868356148058446</v>
+        <v>11.217089037014611</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>4.1701362628514005</v>
+        <v>10.425340657128501</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>5.0289621080161817</v>
+        <v>12.572405270040454</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>5.1106079208431021</v>
+        <v>12.776519802107755</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>4.5535812569249394</v>
+        <v>11.383953142312349</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>4.0176154139503719</v>
+        <v>10.044038534875929</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>2.9288381303305928</v>
+        <v>7.3220953258264814</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>2.5081821227034968</v>
+        <v>6.2704553067587421</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>2.5926748589244757</v>
+        <v>6.4816871473111899</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>2.4356818083434248</v>
+        <v>6.089204520858563</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>2.663717075935994</v>
+        <v>6.6592926898399849</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>2.766745535829318</v>
+        <v>6.9168638395732955</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>2.2745321729495735</v>
+        <v>5.6863304323739339</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>2.4079498299363546</v>
+        <v>6.0198745748408866</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>3.0878704681903679</v>
+        <v>7.7196761704759194</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>4.0227078963642446</v>
+        <v>10.056769740910612</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>3.938282357185189</v>
+        <v>9.8457058929629717</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>4.2385277590249686</v>
+        <v>10.59631939756242</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>4.1199796954314731</v>
+        <v>10.299949238578682</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>4.6567438448555745</v>
+        <v>11.641859612138935</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>4.7153646061480581</v>
+        <v>11.788411515370145</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>4.5546692880517403</v>
+        <v>11.386673220129351</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>4.1890166114818728</v>
+        <v>10.472541528704681</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$7,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>4.0753095712334773</v>
+        <v>10.188273928083692</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS4/case9/case9_2025.xlsx
+++ b/data/CS4/case9/case9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABE71D-4FE4-4F22-BF00-EC572C019E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CFD711-3DB4-41C9-959E-F1749D00D282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39360" yWindow="-11010" windowWidth="13845" windowHeight="7980" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-14280" windowWidth="19410" windowHeight="20985" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4400,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4492,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <f>SUM('RES installed'!$C$2:$C$4)</f>
+        <f>SUM('RES installed'!$C$2:$C$7)</f>
         <v>75</v>
       </c>
     </row>
@@ -12365,7 +12365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/data/CS4/case9/case9_2025.xlsx
+++ b/data/CS4/case9/case9_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CFD711-3DB4-41C9-959E-F1749D00D282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4C03A4-AD51-4578-8647-31717F6C081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="-14280" windowWidth="19410" windowHeight="20985" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
